--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="2985"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37028219921030111X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理学</t>
     <rPh sb="0" eb="1">
       <t>guan'l</t>
@@ -333,10 +324,6 @@
     <rPh sb="4" eb="5">
       <t>yin'h</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20150000010187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,23 +480,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Norelco99887780</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2299900080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18100003080</t>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${RandomUtils.generateUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${QQUtils.genUnRegisterQQ()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,54 +859,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16.125" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="21.33203125" customWidth="1"/>
-    <col min="28" max="28" width="20.6640625" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" customWidth="1"/>
-    <col min="30" max="30" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="21.375" customWidth="1"/>
+    <col min="28" max="28" width="20.625" customWidth="1"/>
+    <col min="29" max="29" width="18.875" customWidth="1"/>
+    <col min="30" max="30" width="21.625" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" customWidth="1"/>
+    <col min="32" max="32" width="18.625" customWidth="1"/>
+    <col min="33" max="33" width="19.375" customWidth="1"/>
+    <col min="34" max="34" width="18.625" customWidth="1"/>
     <col min="35" max="35" width="21.5" customWidth="1"/>
-    <col min="36" max="36" width="22.6640625" customWidth="1"/>
-    <col min="37" max="38" width="20.6640625" customWidth="1"/>
+    <col min="36" max="36" width="22.625" customWidth="1"/>
+    <col min="37" max="38" width="20.625" customWidth="1"/>
     <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="42" width="20.6640625" customWidth="1"/>
+    <col min="40" max="42" width="20.625" customWidth="1"/>
     <col min="44" max="44" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,10 +974,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -995,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1049,21 +1040,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1081,103 +1072,103 @@
         <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AN2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1195,13 +1186,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,31 +1200,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="66.95" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="35.1" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="32.1" customHeight="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="2985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6013826015002711858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,6 +490,14 @@
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -974,10 +979,10 @@
         <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
         <v>27</v>
@@ -986,7 +991,7 @@
         <v>28</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
         <v>29</v>
@@ -1042,16 +1047,16 @@
     </row>
     <row r="2" spans="1:44">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
@@ -1075,7 +1080,7 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>88</v>
@@ -1084,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
@@ -1102,19 +1107,19 @@
         <v>52</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s">
         <v>53</v>
@@ -1156,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s">
         <v>59</v>
@@ -1168,7 +1173,7 @@
         <v>60</v>
       </c>
       <c r="AR2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1216,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.1" customHeight="1">
@@ -1224,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -493,11 +493,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1083,13 +1083,13 @@
         <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s">
         <v>59</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12255" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${RandomUtils.generateUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${QQUtils.genUnRegisterQQ()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +494,33 @@
   </si>
   <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'k</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1045,15 +1068,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" customFormat="1">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>84</v>
@@ -1083,13 +1106,13 @@
         <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
         <v>49</v>
@@ -1161,7 +1184,7 @@
         <v>70</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s">
         <v>59</v>
@@ -1173,6 +1196,137 @@
         <v>60</v>
       </c>
       <c r="AR2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" customFormat="1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -11,7 +11,6 @@
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,30 +496,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan'k</t>
-    </rPh>
+    <t>正例(不用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前还款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,448 +916,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13.875" customWidth="1"/>
-    <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="16.125" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="21.375" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="18.875" customWidth="1"/>
-    <col min="30" max="30" width="21.625" customWidth="1"/>
-    <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="18.625" customWidth="1"/>
-    <col min="33" max="33" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="15.375" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
+    <col min="25" max="25" width="20" customWidth="1"/>
+    <col min="26" max="26" width="16.125" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="25" customWidth="1"/>
+    <col min="29" max="29" width="21.375" customWidth="1"/>
+    <col min="30" max="30" width="20.625" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="32" max="32" width="21.625" customWidth="1"/>
+    <col min="33" max="33" width="22" customWidth="1"/>
     <col min="34" max="34" width="18.625" customWidth="1"/>
-    <col min="35" max="35" width="21.5" customWidth="1"/>
-    <col min="36" max="36" width="22.625" customWidth="1"/>
-    <col min="37" max="38" width="20.625" customWidth="1"/>
-    <col min="39" max="39" width="23" customWidth="1"/>
-    <col min="40" max="42" width="20.625" customWidth="1"/>
-    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="35" max="35" width="19.375" customWidth="1"/>
+    <col min="36" max="36" width="18.625" customWidth="1"/>
+    <col min="37" max="37" width="21.5" customWidth="1"/>
+    <col min="38" max="38" width="22.625" customWidth="1"/>
+    <col min="39" max="40" width="20.625" customWidth="1"/>
+    <col min="41" max="41" width="23" customWidth="1"/>
+    <col min="42" max="45" width="20.625" customWidth="1"/>
+    <col min="47" max="47" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT1" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" customFormat="1">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>59</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:44" customFormat="1">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>59</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU3" t="s">
         <v>81</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,34 +476,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${QQUtils.genUnRegisterQQ()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${BankCardUtils.getUnUsedBankCard(622202100112)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(24)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnUserdUserNname()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,6 +536,30 @@
   </si>
   <si>
     <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -970,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1099,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AT1" t="s">
         <v>4</v>
@@ -1110,22 +1118,22 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>69</v>
@@ -1152,13 +1160,13 @@
         <v>82</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
@@ -1230,7 +1238,7 @@
         <v>70</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AP2" t="s">
         <v>59</v>
@@ -1242,7 +1250,7 @@
         <v>60</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -1253,19 +1261,19 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
@@ -1289,16 +1297,16 @@
         <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
@@ -1316,16 +1324,16 @@
         <v>52</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA3" t="s">
         <v>78</v>
@@ -1370,7 +1378,7 @@
         <v>70</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AP3" t="s">
         <v>59</v>
@@ -1382,7 +1390,7 @@
         <v>60</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AU3" t="s">
         <v>81</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/repayment/PrePaymentTestCase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,39 +527,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>提前还款成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <t>正常还款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期还款成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1107,7 +1115,7 @@
         <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT1" t="s">
         <v>4</v>
@@ -1127,13 +1135,13 @@
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>69</v>
@@ -1160,13 +1168,13 @@
         <v>82</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P2" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
@@ -1250,7 +1258,7 @@
         <v>60</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU2" t="s">
         <v>81</v>
@@ -1264,16 +1272,16 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
@@ -1300,13 +1308,13 @@
         <v>89</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
@@ -1390,9 +1398,289 @@
         <v>60</v>
       </c>
       <c r="AS3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU5" t="s">
         <v>81</v>
       </c>
     </row>
